--- a/assets/Ref_Results/output_HPMR.xlsx
+++ b/assets/Ref_Results/output_HPMR.xlsx
@@ -476,16 +476,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37799899</v>
+        <v>37758305</v>
       </c>
       <c r="D2" t="n">
-        <v>37799899</v>
+        <v>37758305</v>
       </c>
       <c r="E2" t="n">
-        <v>3702056</v>
+        <v>3790559</v>
       </c>
       <c r="F2" t="n">
-        <v>3702056</v>
+        <v>3790559</v>
       </c>
     </row>
     <row r="3">
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78191</v>
+        <v>77401</v>
       </c>
       <c r="D3" t="n">
-        <v>78191</v>
+        <v>77401</v>
       </c>
       <c r="E3" t="n">
-        <v>12801</v>
+        <v>11602</v>
       </c>
       <c r="F3" t="n">
-        <v>12801</v>
+        <v>11602</v>
       </c>
     </row>
     <row r="4">
@@ -520,16 +520,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30670</v>
+        <v>28299</v>
       </c>
       <c r="D4" t="n">
-        <v>30670</v>
+        <v>28299</v>
       </c>
       <c r="E4" t="n">
-        <v>4880</v>
+        <v>4213</v>
       </c>
       <c r="F4" t="n">
-        <v>4880</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="5">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26855523</v>
+        <v>26915238</v>
       </c>
       <c r="D5" t="n">
-        <v>26855523</v>
+        <v>26915238</v>
       </c>
       <c r="E5" t="n">
-        <v>3520591</v>
+        <v>3318182</v>
       </c>
       <c r="F5" t="n">
-        <v>3520591</v>
+        <v>3318182</v>
       </c>
     </row>
     <row r="6">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4888505</v>
+        <v>5017306</v>
       </c>
       <c r="D6" t="n">
-        <v>4888505</v>
+        <v>5017306</v>
       </c>
       <c r="E6" t="n">
-        <v>1117941</v>
+        <v>942086</v>
       </c>
       <c r="F6" t="n">
-        <v>1117941</v>
+        <v>942086</v>
       </c>
     </row>
     <row r="7">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5947007</v>
+        <v>5720060</v>
       </c>
       <c r="D7" t="n">
-        <v>5947007</v>
+        <v>5720060</v>
       </c>
       <c r="E7" t="n">
-        <v>1348679</v>
+        <v>1282369</v>
       </c>
       <c r="F7" t="n">
-        <v>1348679</v>
+        <v>1282369</v>
       </c>
     </row>
     <row r="8">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83974688</v>
+        <v>85355376</v>
       </c>
       <c r="D8" t="n">
-        <v>30033424</v>
+        <v>30999860</v>
       </c>
       <c r="E8" t="n">
-        <v>7746336</v>
+        <v>8206515</v>
       </c>
       <c r="F8" t="n">
-        <v>4570097</v>
+        <v>4874866</v>
       </c>
     </row>
     <row r="9">
@@ -630,16 +630,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7866303</v>
+        <v>8028570</v>
       </c>
       <c r="D9" t="n">
-        <v>2203010</v>
+        <v>2253830</v>
       </c>
       <c r="E9" t="n">
-        <v>2601430</v>
+        <v>3022228</v>
       </c>
       <c r="F9" t="n">
-        <v>525549</v>
+        <v>590813</v>
       </c>
     </row>
     <row r="10">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>193172</v>
+        <v>192536</v>
       </c>
       <c r="D10" t="n">
-        <v>111008</v>
+        <v>110643</v>
       </c>
       <c r="E10" t="n">
-        <v>21798</v>
+        <v>20951</v>
       </c>
       <c r="F10" t="n">
-        <v>12526</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="11">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113618</v>
+        <v>111341</v>
       </c>
       <c r="D11" t="n">
-        <v>65292</v>
+        <v>63983</v>
       </c>
       <c r="E11" t="n">
-        <v>16747</v>
+        <v>16652</v>
       </c>
       <c r="F11" t="n">
-        <v>9623</v>
+        <v>9569</v>
       </c>
     </row>
     <row r="12">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65872</v>
+        <v>66990</v>
       </c>
       <c r="D12" t="n">
-        <v>37854</v>
+        <v>38496</v>
       </c>
       <c r="E12" t="n">
-        <v>9903</v>
+        <v>10233</v>
       </c>
       <c r="F12" t="n">
-        <v>5690</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="13">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13681</v>
+        <v>14204</v>
       </c>
       <c r="D13" t="n">
-        <v>7862</v>
+        <v>8163</v>
       </c>
       <c r="E13" t="n">
-        <v>2314</v>
+        <v>2166</v>
       </c>
       <c r="F13" t="n">
-        <v>1330</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="14">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1701169</v>
+        <v>1757226</v>
       </c>
       <c r="D14" t="n">
-        <v>977595</v>
+        <v>1009809</v>
       </c>
       <c r="E14" t="n">
-        <v>464563</v>
+        <v>534288</v>
       </c>
       <c r="F14" t="n">
-        <v>266966</v>
+        <v>307034</v>
       </c>
     </row>
     <row r="15">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>180521</v>
+        <v>185045</v>
       </c>
       <c r="D15" t="n">
-        <v>103738</v>
+        <v>106338</v>
       </c>
       <c r="E15" t="n">
-        <v>28274</v>
+        <v>27735</v>
       </c>
       <c r="F15" t="n">
-        <v>16248</v>
+        <v>15938</v>
       </c>
     </row>
     <row r="16">
@@ -784,16 +784,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>148618</v>
+        <v>149637</v>
       </c>
       <c r="D16" t="n">
-        <v>85405</v>
+        <v>85990</v>
       </c>
       <c r="E16" t="n">
-        <v>23288</v>
+        <v>22288</v>
       </c>
       <c r="F16" t="n">
-        <v>13382</v>
+        <v>12808</v>
       </c>
     </row>
     <row r="17">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>161452</v>
+        <v>155581</v>
       </c>
       <c r="D17" t="n">
-        <v>92780</v>
+        <v>89406</v>
       </c>
       <c r="E17" t="n">
-        <v>25137</v>
+        <v>24479</v>
       </c>
       <c r="F17" t="n">
-        <v>14445</v>
+        <v>14067</v>
       </c>
     </row>
     <row r="18">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1138606</v>
+        <v>1197569</v>
       </c>
       <c r="D18" t="n">
-        <v>654312</v>
+        <v>688195</v>
       </c>
       <c r="E18" t="n">
-        <v>456797</v>
+        <v>532718</v>
       </c>
       <c r="F18" t="n">
-        <v>262503</v>
+        <v>306132</v>
       </c>
     </row>
     <row r="19">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>71971</v>
+        <v>69393</v>
       </c>
       <c r="D19" t="n">
-        <v>41359</v>
+        <v>39877</v>
       </c>
       <c r="E19" t="n">
-        <v>47637</v>
+        <v>65149</v>
       </c>
       <c r="F19" t="n">
-        <v>27375</v>
+        <v>37438</v>
       </c>
     </row>
     <row r="20">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>73632</v>
+        <v>73475</v>
       </c>
       <c r="D20" t="n">
-        <v>42313</v>
+        <v>42223</v>
       </c>
       <c r="E20" t="n">
-        <v>5545</v>
+        <v>4860</v>
       </c>
       <c r="F20" t="n">
-        <v>3186</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="21">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49233</v>
+        <v>49266</v>
       </c>
       <c r="D21" t="n">
-        <v>28292</v>
+        <v>28311</v>
       </c>
       <c r="E21" t="n">
-        <v>4510</v>
+        <v>4358</v>
       </c>
       <c r="F21" t="n">
-        <v>2592</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="22">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15363</v>
+        <v>15097</v>
       </c>
       <c r="D22" t="n">
-        <v>8828</v>
+        <v>8675</v>
       </c>
       <c r="E22" t="n">
-        <v>2393</v>
+        <v>2127</v>
       </c>
       <c r="F22" t="n">
-        <v>1375</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="23">
@@ -938,16 +938,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12230</v>
+        <v>12148</v>
       </c>
       <c r="D23" t="n">
-        <v>7028</v>
+        <v>6981</v>
       </c>
       <c r="E23" t="n">
-        <v>2159</v>
+        <v>1950</v>
       </c>
       <c r="F23" t="n">
-        <v>1241</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24">
@@ -960,16 +960,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21638</v>
+        <v>22021</v>
       </c>
       <c r="D24" t="n">
-        <v>12435</v>
+        <v>12654</v>
       </c>
       <c r="E24" t="n">
-        <v>3051</v>
+        <v>3192</v>
       </c>
       <c r="F24" t="n">
-        <v>1753</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="25">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24399</v>
+        <v>24209</v>
       </c>
       <c r="D25" t="n">
-        <v>14021</v>
+        <v>13911</v>
       </c>
       <c r="E25" t="n">
-        <v>2611</v>
+        <v>2399</v>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="26">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7448</v>
+        <v>7554</v>
       </c>
       <c r="D26" t="n">
-        <v>4280</v>
+        <v>4341</v>
       </c>
       <c r="E26" t="n">
-        <v>1273</v>
+        <v>1283</v>
       </c>
       <c r="F26" t="n">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6051</v>
+        <v>5842</v>
       </c>
       <c r="D27" t="n">
-        <v>3477</v>
+        <v>3357</v>
       </c>
       <c r="E27" t="n">
-        <v>1065</v>
+        <v>948</v>
       </c>
       <c r="F27" t="n">
-        <v>612</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10900</v>
+        <v>10812</v>
       </c>
       <c r="D28" t="n">
-        <v>6263</v>
+        <v>6213</v>
       </c>
       <c r="E28" t="n">
-        <v>1746</v>
+        <v>1810</v>
       </c>
       <c r="F28" t="n">
-        <v>1003</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="29">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5859668</v>
+        <v>5965926</v>
       </c>
       <c r="D29" t="n">
-        <v>1049875</v>
+        <v>1068509</v>
       </c>
       <c r="E29" t="n">
-        <v>2558220</v>
+        <v>3024876</v>
       </c>
       <c r="F29" t="n">
-        <v>452102</v>
+        <v>534475</v>
       </c>
     </row>
     <row r="30">
@@ -1092,16 +1092,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5823397</v>
+        <v>5930013</v>
       </c>
       <c r="D30" t="n">
-        <v>1029032</v>
+        <v>1047871</v>
       </c>
       <c r="E30" t="n">
-        <v>2558104</v>
+        <v>3024981</v>
       </c>
       <c r="F30" t="n">
-        <v>452033</v>
+        <v>534533</v>
       </c>
     </row>
     <row r="31">
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5823397</v>
+        <v>5930013</v>
       </c>
       <c r="D31" t="n">
-        <v>1029032</v>
+        <v>1047871</v>
       </c>
       <c r="E31" t="n">
-        <v>2558104</v>
+        <v>3024981</v>
       </c>
       <c r="F31" t="n">
-        <v>452033</v>
+        <v>534533</v>
       </c>
     </row>
     <row r="32">
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36270</v>
+        <v>35912</v>
       </c>
       <c r="D32" t="n">
-        <v>20843</v>
+        <v>20637</v>
       </c>
       <c r="E32" t="n">
-        <v>3083</v>
+        <v>3157</v>
       </c>
       <c r="F32" t="n">
-        <v>1771</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="33">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36270</v>
+        <v>35912</v>
       </c>
       <c r="D33" t="n">
-        <v>20843</v>
+        <v>20637</v>
       </c>
       <c r="E33" t="n">
-        <v>3083</v>
+        <v>3157</v>
       </c>
       <c r="F33" t="n">
-        <v>1771</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="34">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6050</v>
+        <v>5965</v>
       </c>
       <c r="D34" t="n">
-        <v>3477</v>
+        <v>3428</v>
       </c>
       <c r="E34" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="F34" t="n">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35">
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>18010</v>
+        <v>17641</v>
       </c>
       <c r="D35" t="n">
-        <v>10349</v>
+        <v>10137</v>
       </c>
       <c r="E35" t="n">
-        <v>2861</v>
+        <v>2736</v>
       </c>
       <c r="F35" t="n">
-        <v>1644</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="36">
@@ -1224,16 +1224,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12210</v>
+        <v>12305</v>
       </c>
       <c r="D36" t="n">
-        <v>7016</v>
+        <v>7071</v>
       </c>
       <c r="E36" t="n">
-        <v>1703</v>
+        <v>1755</v>
       </c>
       <c r="F36" t="n">
-        <v>978</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="37">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>38660</v>
+        <v>39405</v>
       </c>
       <c r="D37" t="n">
-        <v>22216</v>
+        <v>22644</v>
       </c>
       <c r="E37" t="n">
-        <v>3028</v>
+        <v>3931</v>
       </c>
       <c r="F37" t="n">
-        <v>1740</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="38">
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38660</v>
+        <v>39405</v>
       </c>
       <c r="D38" t="n">
-        <v>22216</v>
+        <v>22644</v>
       </c>
       <c r="E38" t="n">
-        <v>3028</v>
+        <v>3931</v>
       </c>
       <c r="F38" t="n">
-        <v>1740</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="39">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15085</v>
+        <v>15405</v>
       </c>
       <c r="D39" t="n">
-        <v>8669</v>
+        <v>8853</v>
       </c>
       <c r="E39" t="n">
-        <v>2235</v>
+        <v>2806</v>
       </c>
       <c r="F39" t="n">
-        <v>1284</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="40">
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11674</v>
+        <v>11774</v>
       </c>
       <c r="D40" t="n">
-        <v>6708</v>
+        <v>6766</v>
       </c>
       <c r="E40" t="n">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="F40" t="n">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="41">
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>11899</v>
+        <v>12225</v>
       </c>
       <c r="D41" t="n">
-        <v>6838</v>
+        <v>7025</v>
       </c>
       <c r="E41" t="n">
-        <v>1616</v>
+        <v>1901</v>
       </c>
       <c r="F41" t="n">
-        <v>928</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>42541116</v>
+        <v>42554902</v>
       </c>
       <c r="D42" t="n">
-        <v>8502524</v>
+        <v>8535171</v>
       </c>
       <c r="E42" t="n">
-        <v>3439676</v>
+        <v>3014231</v>
       </c>
       <c r="F42" t="n">
-        <v>698998</v>
+        <v>623118</v>
       </c>
     </row>
     <row r="43">
@@ -1378,16 +1378,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27182644</v>
+        <v>27421651</v>
       </c>
       <c r="D43" t="n">
-        <v>5788582</v>
+        <v>5861027</v>
       </c>
       <c r="E43" t="n">
-        <v>2232537</v>
+        <v>1892016</v>
       </c>
       <c r="F43" t="n">
-        <v>525436</v>
+        <v>452756</v>
       </c>
     </row>
     <row r="44">
@@ -1400,16 +1400,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13467420</v>
+        <v>13807312</v>
       </c>
       <c r="D44" t="n">
-        <v>3475678</v>
+        <v>3563398</v>
       </c>
       <c r="E44" t="n">
-        <v>1872437</v>
+        <v>1682918</v>
       </c>
       <c r="F44" t="n">
-        <v>483239</v>
+        <v>434328</v>
       </c>
     </row>
     <row r="45">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2251954</v>
+        <v>2290194</v>
       </c>
       <c r="D45" t="n">
-        <v>581185</v>
+        <v>591054</v>
       </c>
       <c r="E45" t="n">
-        <v>442674</v>
+        <v>400751</v>
       </c>
       <c r="F45" t="n">
-        <v>114245</v>
+        <v>103426</v>
       </c>
     </row>
     <row r="46">
@@ -1444,16 +1444,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>11215466</v>
+        <v>11517117</v>
       </c>
       <c r="D46" t="n">
-        <v>2894493</v>
+        <v>2972343</v>
       </c>
       <c r="E46" t="n">
-        <v>1676865</v>
+        <v>1616424</v>
       </c>
       <c r="F46" t="n">
-        <v>432766</v>
+        <v>417167</v>
       </c>
     </row>
     <row r="47">
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10787213</v>
+        <v>10626220</v>
       </c>
       <c r="D47" t="n">
-        <v>1795505</v>
+        <v>1769609</v>
       </c>
       <c r="E47" t="n">
-        <v>1234689</v>
+        <v>1015386</v>
       </c>
       <c r="F47" t="n">
-        <v>210486</v>
+        <v>172364</v>
       </c>
     </row>
     <row r="48">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10787213</v>
+        <v>10626220</v>
       </c>
       <c r="D48" t="n">
-        <v>1795505</v>
+        <v>1769609</v>
       </c>
       <c r="E48" t="n">
-        <v>1234689</v>
+        <v>1015386</v>
       </c>
       <c r="F48" t="n">
-        <v>210486</v>
+        <v>172364</v>
       </c>
     </row>
     <row r="49">
@@ -1510,16 +1510,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4496337</v>
+        <v>4323866</v>
       </c>
       <c r="D49" t="n">
-        <v>717393</v>
+        <v>689875</v>
       </c>
       <c r="E49" t="n">
-        <v>659634</v>
+        <v>635699</v>
       </c>
       <c r="F49" t="n">
-        <v>105245</v>
+        <v>101426</v>
       </c>
     </row>
     <row r="50">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1006066</v>
+        <v>1007280</v>
       </c>
       <c r="D50" t="n">
-        <v>160518</v>
+        <v>160712</v>
       </c>
       <c r="E50" t="n">
-        <v>142244</v>
+        <v>148624</v>
       </c>
       <c r="F50" t="n">
-        <v>22695</v>
+        <v>23713</v>
       </c>
     </row>
     <row r="51">
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3827952</v>
+        <v>3816791</v>
       </c>
       <c r="D51" t="n">
-        <v>676424</v>
+        <v>674451</v>
       </c>
       <c r="E51" t="n">
-        <v>936264</v>
+        <v>808805</v>
       </c>
       <c r="F51" t="n">
-        <v>165444</v>
+        <v>142921</v>
       </c>
     </row>
     <row r="52">
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>508653</v>
+        <v>507626</v>
       </c>
       <c r="D52" t="n">
-        <v>89882</v>
+        <v>89700</v>
       </c>
       <c r="E52" t="n">
-        <v>77361</v>
+        <v>90967</v>
       </c>
       <c r="F52" t="n">
-        <v>13670</v>
+        <v>16074</v>
       </c>
     </row>
     <row r="53">
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>948204</v>
+        <v>970655</v>
       </c>
       <c r="D53" t="n">
-        <v>151286</v>
+        <v>154868</v>
       </c>
       <c r="E53" t="n">
-        <v>139983</v>
+        <v>161634</v>
       </c>
       <c r="F53" t="n">
-        <v>22334</v>
+        <v>25788</v>
       </c>
     </row>
     <row r="54">
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2928010</v>
+        <v>2988117</v>
       </c>
       <c r="D54" t="n">
-        <v>517398</v>
+        <v>528019</v>
       </c>
       <c r="E54" t="n">
-        <v>247041</v>
+        <v>213566</v>
       </c>
       <c r="F54" t="n">
-        <v>43653</v>
+        <v>37738</v>
       </c>
     </row>
     <row r="55">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1718675</v>
+        <v>1724250</v>
       </c>
       <c r="D55" t="n">
-        <v>303701</v>
+        <v>304686</v>
       </c>
       <c r="E55" t="n">
-        <v>158345</v>
+        <v>163361</v>
       </c>
       <c r="F55" t="n">
-        <v>27980</v>
+        <v>28867</v>
       </c>
     </row>
     <row r="56">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1037719</v>
+        <v>1027005</v>
       </c>
       <c r="D56" t="n">
-        <v>183371</v>
+        <v>181478</v>
       </c>
       <c r="E56" t="n">
-        <v>144930</v>
+        <v>143109</v>
       </c>
       <c r="F56" t="n">
-        <v>25610</v>
+        <v>25288</v>
       </c>
     </row>
     <row r="57">
@@ -1686,16 +1686,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>680955</v>
+        <v>697245</v>
       </c>
       <c r="D57" t="n">
-        <v>120329</v>
+        <v>123207</v>
       </c>
       <c r="E57" t="n">
-        <v>101067</v>
+        <v>99519</v>
       </c>
       <c r="F57" t="n">
-        <v>17859</v>
+        <v>17585</v>
       </c>
     </row>
     <row r="58">
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>341442</v>
+        <v>376784</v>
       </c>
       <c r="D58" t="n">
-        <v>60335</v>
+        <v>66580</v>
       </c>
       <c r="E58" t="n">
-        <v>80039</v>
+        <v>85694</v>
       </c>
       <c r="F58" t="n">
-        <v>14143</v>
+        <v>15142</v>
       </c>
     </row>
     <row r="59">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>341442</v>
+        <v>376784</v>
       </c>
       <c r="D59" t="n">
-        <v>60335</v>
+        <v>66580</v>
       </c>
       <c r="E59" t="n">
-        <v>80039</v>
+        <v>85694</v>
       </c>
       <c r="F59" t="n">
-        <v>14143</v>
+        <v>15142</v>
       </c>
     </row>
     <row r="60">
@@ -1752,16 +1752,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>867892</v>
+        <v>887082</v>
       </c>
       <c r="D60" t="n">
-        <v>153362</v>
+        <v>156753</v>
       </c>
       <c r="E60" t="n">
-        <v>137425</v>
+        <v>136441</v>
       </c>
       <c r="F60" t="n">
-        <v>24283</v>
+        <v>24110</v>
       </c>
     </row>
     <row r="61">
@@ -1774,16 +1774,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2144529</v>
+        <v>2259489</v>
       </c>
       <c r="D61" t="n">
-        <v>378952</v>
+        <v>399266</v>
       </c>
       <c r="E61" t="n">
-        <v>1371662</v>
+        <v>1135018</v>
       </c>
       <c r="F61" t="n">
-        <v>242381</v>
+        <v>200565</v>
       </c>
     </row>
     <row r="62">
@@ -1796,16 +1796,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2014301</v>
+        <v>2127799</v>
       </c>
       <c r="D62" t="n">
-        <v>355940</v>
+        <v>375996</v>
       </c>
       <c r="E62" t="n">
-        <v>1370720</v>
+        <v>1134975</v>
       </c>
       <c r="F62" t="n">
-        <v>242215</v>
+        <v>200557</v>
       </c>
     </row>
     <row r="63">
@@ -1818,16 +1818,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>130228</v>
+        <v>131690</v>
       </c>
       <c r="D63" t="n">
-        <v>23012</v>
+        <v>23270</v>
       </c>
       <c r="E63" t="n">
-        <v>20565</v>
+        <v>16338</v>
       </c>
       <c r="F63" t="n">
-        <v>3634</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="64">
@@ -1840,16 +1840,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>130228</v>
+        <v>131690</v>
       </c>
       <c r="D64" t="n">
-        <v>23012</v>
+        <v>23270</v>
       </c>
       <c r="E64" t="n">
-        <v>20565</v>
+        <v>16338</v>
       </c>
       <c r="F64" t="n">
-        <v>3634</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="65">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3334933</v>
+        <v>3540169</v>
       </c>
       <c r="D65" t="n">
-        <v>589304</v>
+        <v>625570</v>
       </c>
       <c r="E65" t="n">
-        <v>370474</v>
+        <v>378359</v>
       </c>
       <c r="F65" t="n">
-        <v>65465</v>
+        <v>66858</v>
       </c>
     </row>
     <row r="66">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3334933</v>
+        <v>3540169</v>
       </c>
       <c r="D66" t="n">
-        <v>589304</v>
+        <v>625570</v>
       </c>
       <c r="E66" t="n">
-        <v>370474</v>
+        <v>378359</v>
       </c>
       <c r="F66" t="n">
-        <v>65465</v>
+        <v>66858</v>
       </c>
     </row>
     <row r="67">
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1691545</v>
+        <v>1725322</v>
       </c>
       <c r="D67" t="n">
-        <v>298907</v>
+        <v>304875</v>
       </c>
       <c r="E67" t="n">
-        <v>267158</v>
+        <v>290554</v>
       </c>
       <c r="F67" t="n">
-        <v>47208</v>
+        <v>51342</v>
       </c>
     </row>
     <row r="68">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1643387</v>
+        <v>1814846</v>
       </c>
       <c r="D68" t="n">
-        <v>290397</v>
+        <v>320695</v>
       </c>
       <c r="E68" t="n">
-        <v>236513</v>
+        <v>248401</v>
       </c>
       <c r="F68" t="n">
-        <v>41793</v>
+        <v>43894</v>
       </c>
     </row>
     <row r="69">
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9842446</v>
+        <v>9298772</v>
       </c>
       <c r="D69" t="n">
-        <v>1739224</v>
+        <v>1643153</v>
       </c>
       <c r="E69" t="n">
-        <v>2109756</v>
+        <v>1911543</v>
       </c>
       <c r="F69" t="n">
-        <v>372807</v>
+        <v>337782</v>
       </c>
     </row>
     <row r="70">
@@ -1972,16 +1972,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>36563</v>
+        <v>34819</v>
       </c>
       <c r="D70" t="n">
-        <v>6461</v>
+        <v>6152</v>
       </c>
       <c r="E70" t="n">
-        <v>8236</v>
+        <v>7482</v>
       </c>
       <c r="F70" t="n">
-        <v>1455</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="71">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9028166</v>
+        <v>11083204</v>
       </c>
       <c r="D71" t="n">
-        <v>5802849</v>
+        <v>7292211</v>
       </c>
       <c r="E71" t="n">
-        <v>5831315</v>
+        <v>6347979</v>
       </c>
       <c r="F71" t="n">
-        <v>4135583</v>
+        <v>4537520</v>
       </c>
     </row>
     <row r="72">
@@ -2016,16 +2016,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7871793</v>
+        <v>9978832</v>
       </c>
       <c r="D72" t="n">
-        <v>5598510</v>
+        <v>7097061</v>
       </c>
       <c r="E72" t="n">
-        <v>5810665</v>
+        <v>6391875</v>
       </c>
       <c r="F72" t="n">
-        <v>4132612</v>
+        <v>4545975</v>
       </c>
     </row>
     <row r="73">
@@ -2038,16 +2038,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7871793</v>
+        <v>9978832</v>
       </c>
       <c r="D73" t="n">
-        <v>5598510</v>
+        <v>7097061</v>
       </c>
       <c r="E73" t="n">
-        <v>5810665</v>
+        <v>6391875</v>
       </c>
       <c r="F73" t="n">
-        <v>4132612</v>
+        <v>4545975</v>
       </c>
     </row>
     <row r="74">
@@ -2060,16 +2060,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1156373</v>
+        <v>1104371</v>
       </c>
       <c r="D74" t="n">
-        <v>204338</v>
+        <v>195149</v>
       </c>
       <c r="E74" t="n">
-        <v>244525</v>
+        <v>262854</v>
       </c>
       <c r="F74" t="n">
-        <v>43209</v>
+        <v>46448</v>
       </c>
     </row>
     <row r="75">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6326254</v>
+        <v>6002131</v>
       </c>
       <c r="D75" t="n">
-        <v>4499305</v>
+        <v>4268785</v>
       </c>
       <c r="E75" t="n">
-        <v>2177330</v>
+        <v>2021982</v>
       </c>
       <c r="F75" t="n">
-        <v>1548542</v>
+        <v>1438057</v>
       </c>
     </row>
     <row r="76">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>556728</v>
+        <v>599554</v>
       </c>
       <c r="D76" t="n">
-        <v>395951</v>
+        <v>426410</v>
       </c>
       <c r="E76" t="n">
-        <v>298123</v>
+        <v>327819</v>
       </c>
       <c r="F76" t="n">
-        <v>212028</v>
+        <v>233148</v>
       </c>
     </row>
     <row r="77">
@@ -2126,16 +2126,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>502832</v>
+        <v>505519</v>
       </c>
       <c r="D77" t="n">
-        <v>357620</v>
+        <v>359531</v>
       </c>
       <c r="E77" t="n">
-        <v>275697</v>
+        <v>342143</v>
       </c>
       <c r="F77" t="n">
-        <v>196079</v>
+        <v>243336</v>
       </c>
     </row>
     <row r="78">
@@ -2148,16 +2148,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>159382</v>
+        <v>165410</v>
       </c>
       <c r="D78" t="n">
-        <v>113354</v>
+        <v>117641</v>
       </c>
       <c r="E78" t="n">
-        <v>94471</v>
+        <v>95060</v>
       </c>
       <c r="F78" t="n">
-        <v>67189</v>
+        <v>67607</v>
       </c>
     </row>
     <row r="79">
@@ -2170,16 +2170,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>516605</v>
+        <v>447431</v>
       </c>
       <c r="D79" t="n">
-        <v>367415</v>
+        <v>318218</v>
       </c>
       <c r="E79" t="n">
-        <v>329697</v>
+        <v>290556</v>
       </c>
       <c r="F79" t="n">
-        <v>234484</v>
+        <v>206646</v>
       </c>
     </row>
     <row r="80">
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2520095</v>
+        <v>2497977</v>
       </c>
       <c r="D80" t="n">
-        <v>1792320</v>
+        <v>1776590</v>
       </c>
       <c r="E80" t="n">
-        <v>1660969</v>
+        <v>1491733</v>
       </c>
       <c r="F80" t="n">
-        <v>1181300</v>
+        <v>1060938</v>
       </c>
     </row>
     <row r="81">
@@ -2214,16 +2214,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2070610</v>
+        <v>1786238</v>
       </c>
       <c r="D81" t="n">
-        <v>1472641</v>
+        <v>1270393</v>
       </c>
       <c r="E81" t="n">
-        <v>1510182</v>
+        <v>1172642</v>
       </c>
       <c r="F81" t="n">
-        <v>1074059</v>
+        <v>833997</v>
       </c>
     </row>
     <row r="82">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>16799822</v>
+        <v>16346031</v>
       </c>
       <c r="D82" t="n">
-        <v>8776043</v>
+        <v>8412980</v>
       </c>
       <c r="E82" t="n">
-        <v>1936574</v>
+        <v>2126886</v>
       </c>
       <c r="F82" t="n">
-        <v>1423661</v>
+        <v>1476016</v>
       </c>
     </row>
     <row r="83">
@@ -2258,16 +2258,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4213369</v>
+        <v>4204289</v>
       </c>
       <c r="D83" t="n">
-        <v>4213369</v>
+        <v>4204289</v>
       </c>
       <c r="E83" t="n">
-        <v>713965</v>
+        <v>612197</v>
       </c>
       <c r="F83" t="n">
-        <v>713965</v>
+        <v>612197</v>
       </c>
     </row>
     <row r="84">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>350772</v>
+        <v>348886</v>
       </c>
       <c r="D84" t="n">
-        <v>350772</v>
+        <v>348886</v>
       </c>
       <c r="E84" t="n">
-        <v>59432</v>
+        <v>54916</v>
       </c>
       <c r="F84" t="n">
-        <v>59432</v>
+        <v>54916</v>
       </c>
     </row>
     <row r="85">
@@ -2302,16 +2302,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2489729</v>
+        <v>2157104</v>
       </c>
       <c r="D85" t="n">
-        <v>2489729</v>
+        <v>2157104</v>
       </c>
       <c r="E85" t="n">
-        <v>1232740</v>
+        <v>1245697</v>
       </c>
       <c r="F85" t="n">
-        <v>1232740</v>
+        <v>1245697</v>
       </c>
     </row>
     <row r="86">
@@ -2324,16 +2324,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9745952</v>
+        <v>9635751</v>
       </c>
       <c r="D86" t="n">
-        <v>1722173</v>
+        <v>1702699</v>
       </c>
       <c r="E86" t="n">
-        <v>1379077</v>
+        <v>1540521</v>
       </c>
       <c r="F86" t="n">
-        <v>243692</v>
+        <v>272220</v>
       </c>
     </row>
     <row r="87">
@@ -2346,16 +2346,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1413024</v>
+        <v>1340536</v>
       </c>
       <c r="D87" t="n">
-        <v>249690</v>
+        <v>236881</v>
       </c>
       <c r="E87" t="n">
-        <v>344950</v>
+        <v>296011</v>
       </c>
       <c r="F87" t="n">
-        <v>60955</v>
+        <v>52307</v>
       </c>
     </row>
     <row r="88">
@@ -2368,16 +2368,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9476370</v>
+        <v>9696866</v>
       </c>
       <c r="D88" t="n">
-        <v>4154727</v>
+        <v>4306598</v>
       </c>
       <c r="E88" t="n">
-        <v>935617</v>
+        <v>1009903</v>
       </c>
       <c r="F88" t="n">
-        <v>546300</v>
+        <v>545073</v>
       </c>
     </row>
     <row r="89">
@@ -2390,16 +2390,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3886489</v>
+        <v>4032379</v>
       </c>
       <c r="D89" t="n">
-        <v>1079482</v>
+        <v>1182329</v>
       </c>
       <c r="E89" t="n">
-        <v>463905</v>
+        <v>494568</v>
       </c>
       <c r="F89" t="n">
-        <v>272965</v>
+        <v>297570</v>
       </c>
     </row>
     <row r="90">
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>728243</v>
+        <v>776502</v>
       </c>
       <c r="D90" t="n">
-        <v>281453</v>
+        <v>315336</v>
       </c>
       <c r="E90" t="n">
-        <v>277090</v>
+        <v>351192</v>
       </c>
       <c r="F90" t="n">
-        <v>99449</v>
+        <v>123862</v>
       </c>
     </row>
     <row r="91">
@@ -2434,16 +2434,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2701828</v>
+        <v>2791762</v>
       </c>
       <c r="D91" t="n">
-        <v>1552634</v>
+        <v>1604316</v>
       </c>
       <c r="E91" t="n">
-        <v>609483</v>
+        <v>584654</v>
       </c>
       <c r="F91" t="n">
-        <v>350246</v>
+        <v>335977</v>
       </c>
     </row>
     <row r="92">
@@ -2456,16 +2456,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>946219</v>
+        <v>905152</v>
       </c>
       <c r="D92" t="n">
-        <v>543755</v>
+        <v>520155</v>
       </c>
       <c r="E92" t="n">
-        <v>198257</v>
+        <v>215183</v>
       </c>
       <c r="F92" t="n">
-        <v>113930</v>
+        <v>123657</v>
       </c>
     </row>
     <row r="93">
@@ -2478,16 +2478,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>723338</v>
+        <v>701051</v>
       </c>
       <c r="D93" t="n">
-        <v>415674</v>
+        <v>402867</v>
       </c>
       <c r="E93" t="n">
-        <v>168301</v>
+        <v>138343</v>
       </c>
       <c r="F93" t="n">
-        <v>96716</v>
+        <v>79500</v>
       </c>
     </row>
     <row r="94">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>490250</v>
+        <v>490017</v>
       </c>
       <c r="D94" t="n">
-        <v>281727</v>
+        <v>281593</v>
       </c>
       <c r="E94" t="n">
-        <v>106297</v>
+        <v>112445</v>
       </c>
       <c r="F94" t="n">
-        <v>61085</v>
+        <v>64617</v>
       </c>
     </row>
     <row r="95">
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>346528</v>
+        <v>328936</v>
       </c>
       <c r="D95" t="n">
-        <v>346528</v>
+        <v>328936</v>
       </c>
       <c r="E95" t="n">
-        <v>74782</v>
+        <v>70864</v>
       </c>
       <c r="F95" t="n">
-        <v>74782</v>
+        <v>70864</v>
       </c>
     </row>
     <row r="96">
@@ -2544,16 +2544,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>346528</v>
+        <v>328936</v>
       </c>
       <c r="D96" t="n">
-        <v>346528</v>
+        <v>328936</v>
       </c>
       <c r="E96" t="n">
-        <v>74782</v>
+        <v>70864</v>
       </c>
       <c r="F96" t="n">
-        <v>74782</v>
+        <v>70864</v>
       </c>
     </row>
     <row r="97">
@@ -2566,16 +2566,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2271351</v>
+        <v>2297966</v>
       </c>
       <c r="D97" t="n">
-        <v>1248483</v>
+        <v>1266763</v>
       </c>
       <c r="E97" t="n">
-        <v>146727</v>
+        <v>166162</v>
       </c>
       <c r="F97" t="n">
-        <v>98702</v>
+        <v>108632</v>
       </c>
     </row>
     <row r="98">
@@ -2588,16 +2588,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2271351</v>
+        <v>2297966</v>
       </c>
       <c r="D98" t="n">
-        <v>1248483</v>
+        <v>1266763</v>
       </c>
       <c r="E98" t="n">
-        <v>146727</v>
+        <v>166162</v>
       </c>
       <c r="F98" t="n">
-        <v>98702</v>
+        <v>108632</v>
       </c>
     </row>
     <row r="99">
@@ -2610,16 +2610,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5625691</v>
+        <v>5696147</v>
       </c>
       <c r="D99" t="n">
-        <v>2247356</v>
+        <v>2295994</v>
       </c>
       <c r="E99" t="n">
-        <v>382024</v>
+        <v>323483</v>
       </c>
       <c r="F99" t="n">
-        <v>184121</v>
+        <v>170871</v>
       </c>
     </row>
     <row r="100">
@@ -2632,16 +2632,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1052015</v>
+        <v>1085876</v>
       </c>
       <c r="D100" t="n">
-        <v>1052015</v>
+        <v>1085876</v>
       </c>
       <c r="E100" t="n">
-        <v>136250</v>
+        <v>143347</v>
       </c>
       <c r="F100" t="n">
-        <v>136250</v>
+        <v>143347</v>
       </c>
     </row>
     <row r="101">
@@ -2654,16 +2654,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6880</v>
+        <v>6820</v>
       </c>
       <c r="D101" t="n">
-        <v>6880</v>
+        <v>6820</v>
       </c>
       <c r="E101" t="n">
-        <v>1274</v>
+        <v>1098</v>
       </c>
       <c r="F101" t="n">
-        <v>1274</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="102">
@@ -2676,16 +2676,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>113949</v>
+        <v>113004</v>
       </c>
       <c r="D102" t="n">
-        <v>113949</v>
+        <v>113004</v>
       </c>
       <c r="E102" t="n">
-        <v>24325</v>
+        <v>23711</v>
       </c>
       <c r="F102" t="n">
-        <v>24325</v>
+        <v>23711</v>
       </c>
     </row>
     <row r="103">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>931186</v>
+        <v>966051</v>
       </c>
       <c r="D103" t="n">
-        <v>931186</v>
+        <v>966051</v>
       </c>
       <c r="E103" t="n">
-        <v>134272</v>
+        <v>141747</v>
       </c>
       <c r="F103" t="n">
-        <v>134272</v>
+        <v>141747</v>
       </c>
     </row>
     <row r="104">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>125149</v>
+        <v>121544</v>
       </c>
       <c r="D104" t="n">
-        <v>125149</v>
+        <v>121544</v>
       </c>
       <c r="E104" t="n">
-        <v>26520</v>
+        <v>27765</v>
       </c>
       <c r="F104" t="n">
-        <v>26520</v>
+        <v>27765</v>
       </c>
     </row>
     <row r="105">
@@ -2742,16 +2742,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4391405</v>
+        <v>4430978</v>
       </c>
       <c r="D105" t="n">
-        <v>1038372</v>
+        <v>1056321</v>
       </c>
       <c r="E105" t="n">
-        <v>319757</v>
+        <v>282315</v>
       </c>
       <c r="F105" t="n">
-        <v>85513</v>
+        <v>80144</v>
       </c>
     </row>
     <row r="106">
@@ -2764,16 +2764,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1656587</v>
+        <v>1701142</v>
       </c>
       <c r="D106" t="n">
-        <v>427532</v>
+        <v>439031</v>
       </c>
       <c r="E106" t="n">
-        <v>247682</v>
+        <v>238754</v>
       </c>
       <c r="F106" t="n">
-        <v>63922</v>
+        <v>61618</v>
       </c>
     </row>
     <row r="107">
@@ -2786,16 +2786,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>315219</v>
+        <v>322189</v>
       </c>
       <c r="D107" t="n">
-        <v>55701</v>
+        <v>56932</v>
       </c>
       <c r="E107" t="n">
-        <v>49913</v>
+        <v>49555</v>
       </c>
       <c r="F107" t="n">
-        <v>8819</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="108">
@@ -2808,16 +2808,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>253857</v>
+        <v>254681</v>
       </c>
       <c r="D108" t="n">
-        <v>44858</v>
+        <v>45003</v>
       </c>
       <c r="E108" t="n">
-        <v>23388</v>
+        <v>24129</v>
       </c>
       <c r="F108" t="n">
-        <v>4132</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="109">
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1593331</v>
+        <v>1569552</v>
       </c>
       <c r="D109" t="n">
-        <v>265206</v>
+        <v>261381</v>
       </c>
       <c r="E109" t="n">
-        <v>182370</v>
+        <v>149978</v>
       </c>
       <c r="F109" t="n">
-        <v>31090</v>
+        <v>25459</v>
       </c>
     </row>
     <row r="110">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>572409</v>
+        <v>583412</v>
       </c>
       <c r="D110" t="n">
-        <v>245074</v>
+        <v>253972</v>
       </c>
       <c r="E110" t="n">
-        <v>72041</v>
+        <v>79186</v>
       </c>
       <c r="F110" t="n">
-        <v>45156</v>
+        <v>48789</v>
       </c>
     </row>
     <row r="111">
@@ -2874,16 +2874,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>57120</v>
+        <v>57748</v>
       </c>
       <c r="D111" t="n">
-        <v>31818</v>
+        <v>32252</v>
       </c>
       <c r="E111" t="n">
-        <v>3714</v>
+        <v>4212</v>
       </c>
       <c r="F111" t="n">
-        <v>2544</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="112">
@@ -2896,16 +2896,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6128947</v>
+        <v>5964213</v>
       </c>
       <c r="D112" t="n">
-        <v>3214701</v>
+        <v>3082919</v>
       </c>
       <c r="E112" t="n">
-        <v>703273</v>
+        <v>772308</v>
       </c>
       <c r="F112" t="n">
-        <v>517355</v>
+        <v>535858</v>
       </c>
     </row>
     <row r="113">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4237</v>
+        <v>4252</v>
       </c>
       <c r="D113" t="n">
-        <v>4237</v>
+        <v>4252</v>
       </c>
       <c r="E113" t="n">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="F113" t="n">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="114">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6101715</v>
+        <v>5936897</v>
       </c>
       <c r="D114" t="n">
-        <v>3187469</v>
+        <v>3055604</v>
       </c>
       <c r="E114" t="n">
-        <v>703366</v>
+        <v>772487</v>
       </c>
       <c r="F114" t="n">
-        <v>517075</v>
+        <v>536091</v>
       </c>
     </row>
     <row r="115">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22994</v>
+        <v>23063</v>
       </c>
       <c r="D115" t="n">
-        <v>22994</v>
+        <v>23063</v>
       </c>
       <c r="E115" t="n">
-        <v>3205</v>
+        <v>3438</v>
       </c>
       <c r="F115" t="n">
-        <v>3205</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="116">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>131597487</v>
+        <v>133139484</v>
       </c>
       <c r="D116" t="n">
-        <v>72334580</v>
+        <v>73393701</v>
       </c>
       <c r="E116" t="n">
-        <v>8501076</v>
+        <v>9627101</v>
       </c>
       <c r="F116" t="n">
-        <v>5718612</v>
+        <v>6293971</v>
       </c>
     </row>
     <row r="117">
@@ -3010,16 +3010,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52221</v>
+        <v>52833</v>
       </c>
       <c r="D117" t="n">
-        <v>28704</v>
+        <v>29124</v>
       </c>
       <c r="E117" t="n">
-        <v>3373</v>
+        <v>3820</v>
       </c>
       <c r="F117" t="n">
-        <v>2269</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="118">
@@ -3034,16 +3034,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>114797664</v>
+        <v>116793453</v>
       </c>
       <c r="D118" t="n">
-        <v>63558536</v>
+        <v>64980721</v>
       </c>
       <c r="E118" t="n">
-        <v>8248351</v>
+        <v>9486088</v>
       </c>
       <c r="F118" t="n">
-        <v>5627701</v>
+        <v>6344252</v>
       </c>
     </row>
     <row r="119">
@@ -3058,16 +3058,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>45554</v>
+        <v>46346</v>
       </c>
       <c r="D119" t="n">
-        <v>25221</v>
+        <v>25786</v>
       </c>
       <c r="E119" t="n">
-        <v>3273</v>
+        <v>3764</v>
       </c>
       <c r="F119" t="n">
-        <v>2233</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="120">
@@ -3082,16 +3082,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>133868839</v>
+        <v>135437451</v>
       </c>
       <c r="D120" t="n">
-        <v>73583063</v>
+        <v>74660465</v>
       </c>
       <c r="E120" t="n">
-        <v>8647803</v>
+        <v>9793263</v>
       </c>
       <c r="F120" t="n">
-        <v>5817314</v>
+        <v>6402604</v>
       </c>
     </row>
     <row r="121">
@@ -3106,16 +3106,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>53122</v>
+        <v>53745</v>
       </c>
       <c r="D121" t="n">
-        <v>29199</v>
+        <v>29627</v>
       </c>
       <c r="E121" t="n">
-        <v>3431</v>
+        <v>3886</v>
       </c>
       <c r="F121" t="n">
-        <v>2308</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="122">
@@ -3130,16 +3130,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>11754638</v>
+        <v>11660360</v>
       </c>
       <c r="D122" t="n">
-        <v>5462057</v>
+        <v>5378914</v>
       </c>
       <c r="E122" t="n">
-        <v>888297</v>
+        <v>894282</v>
       </c>
       <c r="F122" t="n">
-        <v>590754</v>
+        <v>585010</v>
       </c>
     </row>
     <row r="123">
@@ -3154,16 +3154,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D123" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E123" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
@@ -3181,13 +3181,13 @@
         <v>979</v>
       </c>
       <c r="D124" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E124" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F124" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>128.4782676649773</v>
+        <v>135.4782676649773</v>
       </c>
     </row>
     <row r="96">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>435.5855353299546</v>
+        <v>442.5855353299546</v>
       </c>
     </row>
     <row r="98">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>126.9782676649773</v>
+        <v>130.9782676649773</v>
       </c>
     </row>
     <row r="100">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>127.9782676649773</v>
+        <v>134.9782676649773</v>
       </c>
     </row>
     <row r="101">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1512.698201898056</v>
+        <v>1572.006608937986</v>
       </c>
     </row>
     <row r="104">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1528.130918262251</v>
+        <v>1632.948506698297</v>
       </c>
     </row>
     <row r="105">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6012.597683951778</v>
+        <v>6176.723679427755</v>
       </c>
     </row>
     <row r="106">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>167.8482676649773</v>
+        <v>174.8482676649773</v>
       </c>
     </row>
     <row r="108">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>20027.35047514857</v>
+        <v>22182.76566443358</v>
       </c>
     </row>
     <row r="109">
